--- a/evaluations/zeroshot-COT/MMLU-medical_genetics/gaokerena-r1.0/ans.xlsx
+++ b/evaluations/zeroshot-COT/MMLU-medical_genetics/gaokerena-r1.0/ans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD51E305-393F-43C9-843E-0A8FE13D3389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49323BCC-1906-4C84-88F0-2659E2AD9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2513,7 +2513,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
